--- a/dt/グループE学生用 R2年度_sample.xlsx
+++ b/dt/グループE学生用 R2年度_sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Toshiaki/Desktop/medicine/core_curicculum/prj_automatic_insert/public/dt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2C6D6B-5B0D-0742-9300-5830E8589DC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA5FEBD-74AF-BA4B-B834-44F220201570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="275">
   <si>
     <t>学生番号</t>
   </si>
@@ -812,114 +812,6 @@
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>02163097</t>
-  </si>
-  <si>
-    <t>松下 京平</t>
-  </si>
-  <si>
-    <t>02160731</t>
-  </si>
-  <si>
-    <t>森松 はるな</t>
-  </si>
-  <si>
-    <t>02163036</t>
-  </si>
-  <si>
-    <t>岩見 謙太朗</t>
-  </si>
-  <si>
-    <t>02163013</t>
-  </si>
-  <si>
-    <t>鈴木 壱星</t>
-  </si>
-  <si>
-    <t>02163085</t>
-  </si>
-  <si>
-    <t>仲谷 美憂</t>
-  </si>
-  <si>
-    <t>02143034</t>
-  </si>
-  <si>
-    <t>廣瀬 陽俊</t>
-  </si>
-  <si>
-    <t>02163089</t>
-  </si>
-  <si>
-    <t>福岡 悠生</t>
-  </si>
-  <si>
-    <t>02163194</t>
-  </si>
-  <si>
-    <t>尾崎 眞史</t>
-  </si>
-  <si>
-    <t>02163007</t>
-  </si>
-  <si>
-    <t>篠原 翔平</t>
-  </si>
-  <si>
-    <t>02163090</t>
-  </si>
-  <si>
-    <t>小又 大宜</t>
-  </si>
-  <si>
-    <t>02163084</t>
-  </si>
-  <si>
-    <t>小西 俊輔</t>
-  </si>
-  <si>
-    <t>02163056</t>
-  </si>
-  <si>
-    <t>富樫 伶衣</t>
-  </si>
-  <si>
-    <t>02163029</t>
-  </si>
-  <si>
-    <t>朝倉 利晃</t>
-  </si>
-  <si>
-    <t>02163058</t>
-  </si>
-  <si>
-    <t>鈴木 響子</t>
-  </si>
-  <si>
-    <t>02153055</t>
-  </si>
-  <si>
-    <t>赤坂 幹</t>
-  </si>
-  <si>
-    <t>02163006</t>
-  </si>
-  <si>
-    <t>リュウ ミョウ</t>
-  </si>
-  <si>
-    <t>02163045</t>
-  </si>
-  <si>
-    <t>大久保 快星</t>
-  </si>
-  <si>
-    <t>02163027</t>
-  </si>
-  <si>
-    <t>明石 峻太朗</t>
   </si>
   <si>
     <t>学内3＋学外13　計16</t>
@@ -2508,7 +2400,7 @@
   </sheetPr>
   <dimension ref="B1:L104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E8" sqref="E8:E10"/>
     </sheetView>
   </sheetViews>
@@ -2623,22 +2515,22 @@
         <v>183</v>
       </c>
       <c r="G6" s="49" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="H6" s="50" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="I6" s="50" t="s">
         <v>184</v>
       </c>
       <c r="J6" s="50" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="K6" s="49" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="L6" s="49" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="27" thickBot="1">
@@ -2687,7 +2579,7 @@
         <v>57</v>
       </c>
       <c r="J8" s="86" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="K8" s="53" t="s">
         <v>58</v>
@@ -2719,7 +2611,7 @@
         <v>61</v>
       </c>
       <c r="J9" s="86" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="K9" s="57" t="s">
         <v>62</v>
@@ -2732,7 +2624,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="83" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="D10" s="24">
         <f t="shared" si="0"/>
@@ -2751,13 +2643,13 @@
         <v>64</v>
       </c>
       <c r="J10" s="86" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="K10" s="55" t="s">
         <v>65</v>
       </c>
       <c r="L10" s="82" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="19">
@@ -2780,7 +2672,7 @@
         <v>67</v>
       </c>
       <c r="J11" s="86" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="K11" s="55" t="s">
         <v>68</v>
@@ -2812,7 +2704,7 @@
         <v>69</v>
       </c>
       <c r="J12" s="86" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="K12" s="54"/>
       <c r="L12" s="59" t="s">
@@ -2845,7 +2737,7 @@
         <v>80</v>
       </c>
       <c r="K13" s="83" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="L13" s="59" t="s">
         <v>149</v>
@@ -2865,7 +2757,7 @@
       </c>
       <c r="E14" s="7"/>
       <c r="G14" s="83" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="H14" s="59" t="s">
         <v>23</v>
@@ -2930,7 +2822,7 @@
         <v>20</v>
       </c>
       <c r="H16" s="82" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="I16" s="60"/>
       <c r="J16" s="10" t="s">
@@ -2957,7 +2849,7 @@
       </c>
       <c r="E17" s="7"/>
       <c r="G17" s="83" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>157</v>
@@ -3009,7 +2901,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="86" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="D19" s="24">
         <f t="shared" si="0"/>
@@ -3035,7 +2927,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="86" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="D20" s="24">
         <f t="shared" si="0"/>
@@ -3065,7 +2957,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="86" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="D21" s="24">
         <f t="shared" si="0"/>
@@ -3093,7 +2985,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="86" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="D22" s="24">
         <f t="shared" si="0"/>
@@ -3101,7 +2993,7 @@
       </c>
       <c r="E22" s="7"/>
       <c r="G22" s="84" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="H22" s="61" t="s">
         <v>118</v>
@@ -3114,7 +3006,7 @@
         <v>39</v>
       </c>
       <c r="L22" s="61" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="19">
@@ -3131,7 +3023,7 @@
       </c>
       <c r="E23" s="7"/>
       <c r="G23" s="61" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="H23" s="61" t="s">
         <v>170</v>
@@ -3161,7 +3053,7 @@
       </c>
       <c r="E24" s="7"/>
       <c r="G24" s="61" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="H24" s="61" t="s">
         <v>27</v>
@@ -3234,7 +3126,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="84" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="2:12" ht="19">
@@ -3297,7 +3189,7 @@
         <v>22</v>
       </c>
       <c r="C29" s="83" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="D29" s="24">
         <f t="shared" si="0"/>
@@ -3313,10 +3205,10 @@
         <v>93</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="L29" s="84" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="2:12" ht="19">
@@ -3338,13 +3230,13 @@
       <c r="H30" s="64"/>
       <c r="I30" s="68"/>
       <c r="J30" s="10" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="L30" s="84" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="2:12" ht="19">
@@ -3366,13 +3258,13 @@
       <c r="H31" s="64"/>
       <c r="I31" s="68"/>
       <c r="J31" s="10" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="K31" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L31" s="84" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="19">
@@ -3394,7 +3286,7 @@
       <c r="H32" s="67"/>
       <c r="I32" s="68"/>
       <c r="J32" s="10" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="K32" s="12" t="s">
         <v>179</v>
@@ -3415,7 +3307,7 @@
       </c>
       <c r="E33" s="7"/>
       <c r="G33" s="84" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="H33" s="67"/>
       <c r="I33" s="68"/>
@@ -3441,7 +3333,7 @@
       </c>
       <c r="E34" s="7"/>
       <c r="G34" s="84" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="H34" s="68"/>
       <c r="I34" s="68"/>
@@ -3459,7 +3351,7 @@
         <v>28</v>
       </c>
       <c r="C35" s="82" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="D35" s="24">
         <f t="shared" si="0"/>
@@ -3470,7 +3362,7 @@
       <c r="H35" s="68"/>
       <c r="I35" s="70"/>
       <c r="J35" s="83" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="K35" s="12" t="s">
         <v>181</v>
@@ -3494,7 +3386,7 @@
       <c r="H36" s="68"/>
       <c r="I36" s="64"/>
       <c r="J36" s="83" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="K36" s="69" t="s">
         <v>182</v>
@@ -3518,7 +3410,7 @@
       <c r="H37" s="68"/>
       <c r="I37" s="73"/>
       <c r="J37" s="83" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="K37" s="61" t="s">
         <v>47</v>
@@ -3545,7 +3437,7 @@
         <v>165</v>
       </c>
       <c r="K38" s="84" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="L38" s="67"/>
     </row>
@@ -3564,10 +3456,10 @@
       <c r="H39" s="68"/>
       <c r="I39" s="73"/>
       <c r="J39" s="10" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="2:12" ht="19">
@@ -3580,7 +3472,7 @@
       <c r="F40" s="68"/>
       <c r="G40" s="76"/>
       <c r="J40" s="10" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>14</v>
@@ -3596,7 +3488,7 @@
       <c r="F41" s="68"/>
       <c r="G41" s="67"/>
       <c r="J41" s="10" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="K41" s="12" t="s">
         <v>189</v>
@@ -3613,10 +3505,10 @@
       <c r="G42" s="75"/>
       <c r="I42" s="77"/>
       <c r="J42" s="11" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="2:12" ht="19">
@@ -3630,10 +3522,10 @@
       <c r="G43" s="75"/>
       <c r="I43" s="77"/>
       <c r="J43" s="11" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="K43" s="85" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="2:12" ht="19">
@@ -3647,7 +3539,7 @@
       <c r="G44" s="75"/>
       <c r="I44" s="78"/>
       <c r="J44" s="83" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="L44" s="79"/>
     </row>
@@ -3796,7 +3688,7 @@
       <c r="G54" s="30"/>
       <c r="H54" s="30"/>
       <c r="J54" s="74" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="L54" s="26"/>
     </row>
@@ -3811,7 +3703,7 @@
       <c r="G55" s="30"/>
       <c r="H55" s="30"/>
       <c r="J55" s="84" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="L55" s="26"/>
     </row>
@@ -3826,7 +3718,7 @@
       <c r="G56" s="26"/>
       <c r="H56" s="30"/>
       <c r="J56" s="84" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="L56" s="26"/>
     </row>
@@ -3841,7 +3733,7 @@
       <c r="G57" s="26"/>
       <c r="H57" s="30"/>
       <c r="J57" s="84" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="L57" s="26"/>
     </row>
@@ -3850,7 +3742,7 @@
       <c r="E58" s="3"/>
       <c r="H58" s="30"/>
       <c r="J58" s="84" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="L58" s="26"/>
     </row>
@@ -3859,7 +3751,7 @@
       <c r="E59" s="3"/>
       <c r="H59" s="30"/>
       <c r="J59" s="84" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60" spans="2:12">
@@ -4094,7 +3986,9 @@
   </sheetPr>
   <dimension ref="A1:I252"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="15"/>
   <cols>
@@ -4166,20 +4060,12 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16" thickBot="1">
-      <c r="A4" s="81" t="s">
-        <v>212</v>
-      </c>
-      <c r="B4" s="81" t="s">
-        <v>213</v>
-      </c>
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A5" s="81" t="s">
-        <v>230</v>
-      </c>
-      <c r="B5" s="81" t="s">
-        <v>231</v>
-      </c>
+      <c r="A5" s="81"/>
+      <c r="B5" s="81"/>
       <c r="D5" s="89" t="s">
         <v>56</v>
       </c>
@@ -4190,12 +4076,8 @@
       <c r="I5" s="91"/>
     </row>
     <row r="6" spans="1:9" ht="16">
-      <c r="A6" s="81" t="s">
-        <v>204</v>
-      </c>
-      <c r="B6" s="81" t="s">
-        <v>205</v>
-      </c>
+      <c r="A6" s="81"/>
+      <c r="B6" s="81"/>
       <c r="D6" s="9" t="s">
         <v>103</v>
       </c>
@@ -4206,7 +4088,7 @@
         <v>105</v>
       </c>
       <c r="G6" s="86" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="H6" s="34" t="s">
         <v>106</v>
@@ -4216,12 +4098,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="16">
-      <c r="A7" s="81" t="s">
-        <v>232</v>
-      </c>
-      <c r="B7" s="81" t="s">
-        <v>233</v>
-      </c>
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
       <c r="D7" s="9" t="s">
         <v>121</v>
       </c>
@@ -4242,12 +4120,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="16">
-      <c r="A8" s="81" t="s">
-        <v>218</v>
-      </c>
-      <c r="B8" s="81" t="s">
-        <v>219</v>
-      </c>
+      <c r="A8" s="81"/>
+      <c r="B8" s="81"/>
       <c r="D8" s="9" t="s">
         <v>125</v>
       </c>
@@ -4268,12 +4142,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="16">
-      <c r="A9" s="81" t="s">
-        <v>208</v>
-      </c>
-      <c r="B9" s="81" t="s">
-        <v>209</v>
-      </c>
+      <c r="A9" s="81"/>
+      <c r="B9" s="81"/>
       <c r="D9" s="9" t="s">
         <v>129</v>
       </c>
@@ -4284,7 +4154,7 @@
         <v>131</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="H9" s="34" t="s">
         <v>132</v>
@@ -4294,12 +4164,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="16">
-      <c r="A10" s="81" t="s">
-        <v>236</v>
-      </c>
-      <c r="B10" s="81" t="s">
-        <v>237</v>
-      </c>
+      <c r="A10" s="81"/>
+      <c r="B10" s="81"/>
       <c r="D10" s="9" t="s">
         <v>133</v>
       </c>
@@ -4310,7 +4176,7 @@
         <v>135</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="H10" s="34" t="s">
         <v>136</v>
@@ -4320,19 +4186,15 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="16">
-      <c r="A11" s="81" t="s">
-        <v>226</v>
-      </c>
-      <c r="B11" s="81" t="s">
-        <v>227</v>
-      </c>
+      <c r="A11" s="81"/>
+      <c r="B11" s="81"/>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
       <c r="F11" s="34" t="s">
         <v>137</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="H11" s="34" t="s">
         <v>138</v>
@@ -4342,12 +4204,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="16">
-      <c r="A12" s="81" t="s">
-        <v>206</v>
-      </c>
-      <c r="B12" s="81" t="s">
-        <v>207</v>
-      </c>
+      <c r="A12" s="81"/>
+      <c r="B12" s="81"/>
       <c r="D12" s="58" t="s">
         <v>139</v>
       </c>
@@ -4366,12 +4224,8 @@
       <c r="I12" s="28"/>
     </row>
     <row r="13" spans="1:9" ht="16">
-      <c r="A13" s="81" t="s">
-        <v>234</v>
-      </c>
-      <c r="B13" s="81" t="s">
-        <v>235</v>
-      </c>
+      <c r="A13" s="81"/>
+      <c r="B13" s="81"/>
       <c r="D13" s="59" t="s">
         <v>18</v>
       </c>
@@ -4382,24 +4236,20 @@
         <v>144</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="H13" s="36" t="s">
         <v>145</v>
       </c>
       <c r="I13" s="83" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16">
-      <c r="A14" s="81" t="s">
-        <v>224</v>
-      </c>
-      <c r="B14" s="81" t="s">
-        <v>225</v>
-      </c>
+      <c r="A14" s="81"/>
+      <c r="B14" s="81"/>
       <c r="D14" s="83" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="E14" s="37" t="s">
         <v>22</v>
@@ -4408,7 +4258,7 @@
         <v>147</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="H14" s="38"/>
       <c r="I14" s="37" t="s">
@@ -4416,12 +4266,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="32">
-      <c r="A15" s="81" t="s">
-        <v>228</v>
-      </c>
-      <c r="B15" s="81" t="s">
-        <v>229</v>
-      </c>
+      <c r="A15" s="81"/>
+      <c r="B15" s="81"/>
       <c r="D15" s="59" t="s">
         <v>19</v>
       </c>
@@ -4432,22 +4278,18 @@
         <v>150</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="H15" s="83" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="I15" s="37" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="32">
-      <c r="A16" s="81" t="s">
-        <v>222</v>
-      </c>
-      <c r="B16" s="81" t="s">
-        <v>223</v>
-      </c>
+      <c r="A16" s="81"/>
+      <c r="B16" s="81"/>
       <c r="D16" s="59" t="s">
         <v>20</v>
       </c>
@@ -4458,7 +4300,7 @@
         <v>152</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="H16" s="39" t="s">
         <v>8</v>
@@ -4468,14 +4310,10 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="16">
-      <c r="A17" s="81" t="s">
-        <v>210</v>
-      </c>
-      <c r="B17" s="81" t="s">
-        <v>211</v>
-      </c>
+      <c r="A17" s="81"/>
+      <c r="B17" s="81"/>
       <c r="D17" s="83" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="E17" s="37" t="s">
         <v>23</v>
@@ -4484,7 +4322,7 @@
         <v>156</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="H17" s="39" t="s">
         <v>153</v>
@@ -4494,12 +4332,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="16">
-      <c r="A18" s="81" t="s">
-        <v>214</v>
-      </c>
-      <c r="B18" s="81" t="s">
-        <v>215</v>
-      </c>
+      <c r="A18" s="81"/>
+      <c r="B18" s="81"/>
       <c r="D18" s="59" t="s">
         <v>41</v>
       </c>
@@ -4510,7 +4344,7 @@
         <v>159</v>
       </c>
       <c r="G18" s="86" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="H18" s="39" t="s">
         <v>193</v>
@@ -4520,23 +4354,19 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="16">
-      <c r="A19" s="81" t="s">
-        <v>220</v>
-      </c>
-      <c r="B19" s="81" t="s">
-        <v>221</v>
-      </c>
+      <c r="A19" s="81"/>
+      <c r="B19" s="81"/>
       <c r="D19" s="59" t="s">
         <v>151</v>
       </c>
       <c r="E19" s="82" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="F19" s="34" t="s">
         <v>160</v>
       </c>
       <c r="G19" s="86" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="H19" s="39" t="s">
         <v>9</v>
@@ -4546,12 +4376,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" s="2" customFormat="1" ht="16">
-      <c r="A20" s="81" t="s">
-        <v>202</v>
-      </c>
-      <c r="B20" s="81" t="s">
-        <v>203</v>
-      </c>
+      <c r="A20" s="81"/>
+      <c r="B20" s="81"/>
       <c r="D20" s="11" t="s">
         <v>155</v>
       </c>
@@ -4562,7 +4388,7 @@
         <v>163</v>
       </c>
       <c r="G20" s="86" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="H20" s="39" t="s">
         <v>10</v>
@@ -4572,12 +4398,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" ht="16">
-      <c r="A21" s="81" t="s">
-        <v>216</v>
-      </c>
-      <c r="B21" s="81" t="s">
-        <v>217</v>
-      </c>
+      <c r="A21" s="81"/>
+      <c r="B21" s="81"/>
       <c r="D21" s="60"/>
       <c r="E21" s="37" t="s">
         <v>158</v>
@@ -4586,7 +4408,7 @@
         <v>164</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="H21" s="31" t="s">
         <v>161</v>
@@ -4599,7 +4421,7 @@
       <c r="A22"/>
       <c r="B22"/>
       <c r="D22" s="84" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="34" t="s">
@@ -4617,7 +4439,7 @@
     </row>
     <row r="23" spans="1:9" ht="16">
       <c r="D23" s="61" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="E23" s="40" t="s">
         <v>24</v>
@@ -4626,7 +4448,7 @@
         <v>167</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="H23" s="39" t="s">
         <v>191</v>
@@ -4644,7 +4466,7 @@
         <v>171</v>
       </c>
       <c r="G24" s="82" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="H24" s="39" t="s">
         <v>11</v>
@@ -4678,7 +4500,7 @@
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="13" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="H26" s="39" t="s">
         <v>115</v>
@@ -4696,7 +4518,7 @@
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="13" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="H27" s="39" t="s">
         <v>12</v>
@@ -4738,7 +4560,7 @@
         <v>32</v>
       </c>
       <c r="I29" s="84" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16">
@@ -4750,7 +4572,7 @@
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="13" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="H30" s="42"/>
       <c r="I30" s="29" t="s">
@@ -4777,34 +4599,34 @@
     </row>
     <row r="32" spans="1:9" ht="16">
       <c r="D32" s="84" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="E32" s="25"/>
       <c r="F32" s="2"/>
       <c r="G32" s="74" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="H32" s="61" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="I32" s="84" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="4:9" ht="16">
       <c r="D33" s="84" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="2"/>
       <c r="G33" s="13" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="H33" s="61" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="I33" s="84" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="4:9">
@@ -4812,13 +4634,13 @@
       <c r="E34" s="25"/>
       <c r="F34" s="2"/>
       <c r="G34" s="84" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="H34" s="61" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="I34" s="84" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="4:9" ht="16">
@@ -4897,7 +4719,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="84" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="I42" s="2"/>
     </row>
@@ -4907,7 +4729,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="12" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="I43" s="3"/>
     </row>
@@ -4937,7 +4759,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="12" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="I46" s="2"/>
     </row>
